--- a/Frontend & Backend Testing Documents/Testing Plan.xlsx
+++ b/Frontend & Backend Testing Documents/Testing Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5464169ef79c6a16/Desktop/Computing Years/Computing Year 4/Collaborative Project (Year Long)/Frontend ^0 Backend Testing Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5464169ef79c6a16/Desktop/Computing Years/Computing Year 4/Collaborative Project (Year Long)/PROJECT DOCUMENTS - GITHUB ^0 NEW/Frontend ^0 Backend Testing Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{197E27B6-EA79-42FA-A7D8-FC34330D7B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{197E27B6-EA79-42FA-A7D8-FC34330D7B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12FE6A98-E6E5-4309-8FF4-6AB7E6BCECCE}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{66ECC141-54E1-4219-8EEA-79F64E297CAC}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{66ECC141-54E1-4219-8EEA-79F64E297CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Test Plan" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>TestID</t>
   </si>
@@ -57,21 +57,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>Create Account Button</t>
-  </si>
-  <si>
-    <t>Login Button</t>
-  </si>
-  <si>
-    <t>Logout Button</t>
-  </si>
-  <si>
-    <t>Scan Button</t>
-  </si>
-  <si>
-    <t>NavBar Burger Menu Icon</t>
   </si>
 </sst>
 </file>
@@ -301,40 +286,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -584,13 +535,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -624,6 +568,47 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -638,15 +623,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CCD827F-1110-48F0-87DC-118EC9F11A1F}" name="Table2" displayName="Table2" ref="A1:G41" insertRowShift="1" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CCD827F-1110-48F0-87DC-118EC9F11A1F}" name="Table2" displayName="Table2" ref="A1:G41" insertRowShift="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9F47A1B3-6180-4DBE-A78C-C596E4AFB4D0}" name="TestID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{7F9DECD0-6444-4DD7-A3D6-EE92ECBA6C1B}" name="TestTitle" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1102ECA5-FC26-4083-A249-1FFEC0E597C1}" name="Details/Inputs/Actions" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{90CB21A7-7F4A-429B-B6F5-E8CCE53F52EA}" name="Expected Outcome" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{39E1374C-EE38-470E-8AD6-0ED2A590CFDB}" name="Actual Outcome" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{583F42EF-8AA2-4222-A9AE-ABCCA0A16D8A}" name="Result" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{1BAA93F4-E212-42AA-B82C-D21C29A9BDFE}" name="Comment" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9F47A1B3-6180-4DBE-A78C-C596E4AFB4D0}" name="TestID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7F9DECD0-6444-4DD7-A3D6-EE92ECBA6C1B}" name="TestTitle" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1102ECA5-FC26-4083-A249-1FFEC0E597C1}" name="Details/Inputs/Actions" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{90CB21A7-7F4A-429B-B6F5-E8CCE53F52EA}" name="Expected Outcome" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{39E1374C-EE38-470E-8AD6-0ED2A590CFDB}" name="Actual Outcome" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{583F42EF-8AA2-4222-A9AE-ABCCA0A16D8A}" name="Result" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1BAA93F4-E212-42AA-B82C-D21C29A9BDFE}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -951,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131753A6-1BBD-4EB3-9A13-C3B78D57DD4C}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -993,9 +978,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1006,9 +989,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1019,9 +1000,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1032,9 +1011,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1045,9 +1022,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1451,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122297D2-164C-4A5B-9FCD-5E7326A91898}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Frontend & Backend Testing Documents/Testing Plan.xlsx
+++ b/Frontend & Backend Testing Documents/Testing Plan.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5464169ef79c6a16/Desktop/Computing Years/Computing Year 4/Collaborative Project (Year Long)/PROJECT DOCUMENTS - GITHUB ^0 NEW/Frontend ^0 Backend Testing Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{197E27B6-EA79-42FA-A7D8-FC34330D7B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9078F5B4-E14C-4F0B-A2D6-EB9B1FA1ED99}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{197E27B6-EA79-42FA-A7D8-FC34330D7B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD195BF-650F-408F-993D-61F325C5CD67}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{66ECC141-54E1-4219-8EEA-79F64E297CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Test Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="Backend Test Plan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>TestID</t>
   </si>
@@ -189,25 +188,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,30 +212,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor theme="8" tint="-0.249977111117893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -377,49 +343,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -641,6 +584,54 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -668,36 +659,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -712,15 +673,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CCD827F-1110-48F0-87DC-118EC9F11A1F}" name="Table2" displayName="Table2" ref="A1:G54" insertRowShift="1" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CCD827F-1110-48F0-87DC-118EC9F11A1F}" name="Table2" displayName="Table2" ref="A1:G54" insertRowShift="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9F47A1B3-6180-4DBE-A78C-C596E4AFB4D0}" name="TestID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{7F9DECD0-6444-4DD7-A3D6-EE92ECBA6C1B}" name="TestTitle" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1102ECA5-FC26-4083-A249-1FFEC0E597C1}" name="Details/Inputs/Actions" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{90CB21A7-7F4A-429B-B6F5-E8CCE53F52EA}" name="Expected Outcome" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{39E1374C-EE38-470E-8AD6-0ED2A590CFDB}" name="Actual Outcome" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{583F42EF-8AA2-4222-A9AE-ABCCA0A16D8A}" name="Result" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{1BAA93F4-E212-42AA-B82C-D21C29A9BDFE}" name="Comment" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9F47A1B3-6180-4DBE-A78C-C596E4AFB4D0}" name="TestID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7F9DECD0-6444-4DD7-A3D6-EE92ECBA6C1B}" name="TestTitle" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1102ECA5-FC26-4083-A249-1FFEC0E597C1}" name="Details/Inputs/Actions" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{90CB21A7-7F4A-429B-B6F5-E8CCE53F52EA}" name="Expected Outcome" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{39E1374C-EE38-470E-8AD6-0ED2A590CFDB}" name="Actual Outcome" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{583F42EF-8AA2-4222-A9AE-ABCCA0A16D8A}" name="Result" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1BAA93F4-E212-42AA-B82C-D21C29A9BDFE}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1025,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131753A6-1BBD-4EB3-9A13-C3B78D57DD4C}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1041,696 +1002,696 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A2" s="9">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A3" s="9">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A9" s="9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A10" s="9">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A11" s="9">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A12" s="9">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A13" s="9">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A14" s="9">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A15" s="9">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A16" s="9">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A17" s="9">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A18" s="9">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A19" s="9">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A20" s="9">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A21" s="9">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A22" s="9">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A23" s="9">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A24" s="9">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A25" s="9">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A26" s="13"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="14"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A27" s="9">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A28" s="9">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A29" s="9">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A30" s="9">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A31" s="9">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A32" s="9">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A33" s="9">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A34" s="15">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A35" s="15">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A36" s="15">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A37" s="15">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A38" s="15">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A39" s="15">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A40" s="15">
+      <c r="A40" s="10">
         <v>38</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A41" s="15">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A42" s="15">
+      <c r="A42" s="10">
         <v>40</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A43" s="15">
+      <c r="A43" s="10">
         <v>41</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A44" s="15">
+      <c r="A44" s="10">
         <v>42</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A45" s="15">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A46" s="15">
+      <c r="A46" s="10">
         <v>44</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A47" s="15">
+      <c r="A47" s="10">
         <v>45</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A48" s="15">
+      <c r="A48" s="10">
         <v>46</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A49" s="15">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A50" s="15">
+      <c r="A50" s="10">
         <v>48</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A51" s="15">
+      <c r="A51" s="10">
         <v>49</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A52" s="15">
+      <c r="A52" s="10">
         <v>50</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A53" s="15">
+      <c r="A53" s="10">
         <v>51</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A54" s="15">
+      <c r="A54" s="10">
         <v>52</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1739,491 +1700,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122297D2-164C-4A5B-9FCD-5E7326A91898}">
-  <dimension ref="A1:G41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="6.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Frontend & Backend Testing Documents/Testing Plan.xlsx
+++ b/Frontend & Backend Testing Documents/Testing Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5464169ef79c6a16/Desktop/Computing Years/Computing Year 4/Collaborative Project (Year Long)/PROJECT DOCUMENTS - GITHUB ^0 NEW/Frontend ^0 Backend Testing Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{197E27B6-EA79-42FA-A7D8-FC34330D7B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD195BF-650F-408F-993D-61F325C5CD67}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="8_{197E27B6-EA79-42FA-A7D8-FC34330D7B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B2767D-6D17-4C41-A115-13B5A0D214A0}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{66ECC141-54E1-4219-8EEA-79F64E297CAC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="146">
   <si>
     <t>TestID</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Login Page</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter Username </t>
-  </si>
-  <si>
-    <t>Enter Password</t>
-  </si>
-  <si>
     <t>Log On Button</t>
   </si>
   <si>
@@ -88,21 +82,6 @@
     <t>Enter Details Page</t>
   </si>
   <si>
-    <t>Enter Car Type</t>
-  </si>
-  <si>
-    <t>Enter Colour of Fault</t>
-  </si>
-  <si>
-    <t>Enter Describe Fault</t>
-  </si>
-  <si>
-    <t>Enter Time Detected</t>
-  </si>
-  <si>
-    <t>Enter Location</t>
-  </si>
-  <si>
     <t>Suggested Fault Button</t>
   </si>
   <si>
@@ -182,6 +161,318 @@
   </si>
   <si>
     <t xml:space="preserve">Top NavBar </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>User opens the app to see the home display page</t>
+  </si>
+  <si>
+    <t>User selects the login button</t>
+  </si>
+  <si>
+    <t>User selects the detect fault button</t>
+  </si>
+  <si>
+    <t>User selects the enter details button</t>
+  </si>
+  <si>
+    <t>The user should be on the home display page (welcome page)</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the login page</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the enter details page</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the detect fault page</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>The user is on the login page</t>
+  </si>
+  <si>
+    <t>Enter Username &amp; Passowrd</t>
+  </si>
+  <si>
+    <t>User enters in a valid username &amp; Password</t>
+  </si>
+  <si>
+    <t>User enters in a invaild username &amp; password</t>
+  </si>
+  <si>
+    <t>User selects the logon button</t>
+  </si>
+  <si>
+    <t>User selects the cancel button</t>
+  </si>
+  <si>
+    <t>The user should be on the login page</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>The user should be logged in</t>
+  </si>
+  <si>
+    <t>The user should not be logged in and promot with an error message saying Invalid details</t>
+  </si>
+  <si>
+    <t>The user should be able to logon once details are correct</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the home page</t>
+  </si>
+  <si>
+    <t>The user is on the enter details page</t>
+  </si>
+  <si>
+    <t>The user is on the detect fault page</t>
+  </si>
+  <si>
+    <t>The user should be on the enter details page</t>
+  </si>
+  <si>
+    <t>Enter valid Car Type</t>
+  </si>
+  <si>
+    <t>Enter valid Colour of Fault</t>
+  </si>
+  <si>
+    <t>Enter valid Describe Fault</t>
+  </si>
+  <si>
+    <t>Enter valid Time Detected</t>
+  </si>
+  <si>
+    <t>Enter valid Location</t>
+  </si>
+  <si>
+    <t>Enter invalid Car Type</t>
+  </si>
+  <si>
+    <t>Enter invalid Colour of Fault</t>
+  </si>
+  <si>
+    <t>Enter invalid Describe Fault</t>
+  </si>
+  <si>
+    <t>Enter invalid Time Detected</t>
+  </si>
+  <si>
+    <t>Enter invalid Location</t>
+  </si>
+  <si>
+    <t>User enters in a valid car type</t>
+  </si>
+  <si>
+    <t>User enters in an invalid location</t>
+  </si>
+  <si>
+    <t>User enters in an invalid time detected</t>
+  </si>
+  <si>
+    <t>User enters in an invalid describe fault</t>
+  </si>
+  <si>
+    <t>User enters in an invalid colour of fault</t>
+  </si>
+  <si>
+    <t>User enters in a valid location</t>
+  </si>
+  <si>
+    <t>User enters in an invalid car type</t>
+  </si>
+  <si>
+    <t>User enters in a valid time detected</t>
+  </si>
+  <si>
+    <t>User enters in a valid describe fault</t>
+  </si>
+  <si>
+    <t>User enters in a valid colour of fault</t>
+  </si>
+  <si>
+    <t>User selects the suggest fault button if all inputs are valid</t>
+  </si>
+  <si>
+    <t>User selects the suggest fault button, but is not suggested a fault if all inputs are invalid</t>
+  </si>
+  <si>
+    <t>The user enters in a valid colour</t>
+  </si>
+  <si>
+    <t>The user enters in an invalid colour</t>
+  </si>
+  <si>
+    <t>The user enters in a valid description</t>
+  </si>
+  <si>
+    <t>The user enters in a valid car type</t>
+  </si>
+  <si>
+    <t>The user enters in a valid time detected</t>
+  </si>
+  <si>
+    <t>The user enters in a valid location</t>
+  </si>
+  <si>
+    <t>The user should be able to select the suggest fault button if all inputs are valid</t>
+  </si>
+  <si>
+    <t>The user enters in an invalid car type</t>
+  </si>
+  <si>
+    <t>The user enters in an invalid decription</t>
+  </si>
+  <si>
+    <t>The user enters in an invalid time detected</t>
+  </si>
+  <si>
+    <t>The user enters in an invalid location</t>
+  </si>
+  <si>
+    <t>The user shouldnot be able to select the suggest fault button if all inputs are invalid</t>
+  </si>
+  <si>
+    <t>The user selects the red button option</t>
+  </si>
+  <si>
+    <t>The user selects the amber button option</t>
+  </si>
+  <si>
+    <t>The user selects the green button option</t>
+  </si>
+  <si>
+    <t>The user selects the blue button option</t>
+  </si>
+  <si>
+    <t>The user should be on the detect fault page</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the red fault page</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the amber fault page</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the green fault page</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the blue fault page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user can view the top navbar </t>
+  </si>
+  <si>
+    <t>The user selects the navbar icon from the navbar</t>
+  </si>
+  <si>
+    <t>The user can see the top navbar</t>
+  </si>
+  <si>
+    <t>The user can see the navbar options and is redirected to the navbar page</t>
+  </si>
+  <si>
+    <t>The user is on the navbar page</t>
+  </si>
+  <si>
+    <t>The user is on the select most common faults link</t>
+  </si>
+  <si>
+    <t>The user is on the select green blue fault link</t>
+  </si>
+  <si>
+    <t>The user selects the detect fault link</t>
+  </si>
+  <si>
+    <t>The user selects the red faults link</t>
+  </si>
+  <si>
+    <t>The user selects the amber fault link</t>
+  </si>
+  <si>
+    <t>The user selects the roadside assistance link</t>
+  </si>
+  <si>
+    <t>The user selects the enter details link</t>
+  </si>
+  <si>
+    <t>The user is on the logout button</t>
+  </si>
+  <si>
+    <t>The user is on the red fault page</t>
+  </si>
+  <si>
+    <t>The user is on the amber fault page</t>
+  </si>
+  <si>
+    <t>The user is on the roadside assistance page</t>
+  </si>
+  <si>
+    <t>The user selects the home page link</t>
+  </si>
+  <si>
+    <t>The user is on the most common faults page</t>
+  </si>
+  <si>
+    <t>The user selects the red faults title / images</t>
+  </si>
+  <si>
+    <t>The user selects the amber faults title / images</t>
+  </si>
+  <si>
+    <t>The user selects the green / blue faults title / images</t>
+  </si>
+  <si>
+    <t>The user is on the Green / Blue fault page</t>
+  </si>
+  <si>
+    <t>The user selects the most common faults link</t>
+  </si>
+  <si>
+    <t>The user is redirected to the detect fault page</t>
+  </si>
+  <si>
+    <t>The user is redirected to the amber fault page</t>
+  </si>
+  <si>
+    <t>The user is redirected to the roadside assistance page</t>
+  </si>
+  <si>
+    <t>The user is redirected to the enter details page</t>
+  </si>
+  <si>
+    <t>The user is redirected to the most common fault page</t>
+  </si>
+  <si>
+    <t>The user is redirected to the red fault page</t>
+  </si>
+  <si>
+    <t>The user is redirected to the green / blue fault page</t>
+  </si>
+  <si>
+    <t>The user is redirected to the home page</t>
+  </si>
+  <si>
+    <t>The user stays on the red fault page</t>
+  </si>
+  <si>
+    <t>The user stays on the amber fault page</t>
+  </si>
+  <si>
+    <t>The user stays on the roadside assistance page</t>
+  </si>
+  <si>
+    <t>The user stays on the green / blue fault page</t>
+  </si>
+  <si>
+    <t>The user can see the bottom navbar</t>
   </si>
 </sst>
 </file>
@@ -212,12 +503,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -343,21 +640,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +976,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CCD827F-1110-48F0-87DC-118EC9F11A1F}" name="Table2" displayName="Table2" ref="A1:G54" insertRowShift="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CCD827F-1110-48F0-87DC-118EC9F11A1F}" name="Table2" displayName="Table2" ref="A1:G60" insertRowShift="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9F47A1B3-6180-4DBE-A78C-C596E4AFB4D0}" name="TestID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{7F9DECD0-6444-4DD7-A3D6-EE92ECBA6C1B}" name="TestTitle" dataDxfId="5"/>
@@ -984,18 +1287,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131753A6-1BBD-4EB3-9A13-C3B78D57DD4C}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.4609375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.4609375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.69140625" bestFit="1" customWidth="1"/>
@@ -1014,684 +1317,1158 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
+      <c r="A6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="B17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4">
+      <c r="B21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="C34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A36" s="3">
+        <v>30</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="C36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
+        <v>31</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="C37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
+        <v>32</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
+        <v>33</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="C39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
+        <v>34</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A25" s="4">
+      <c r="C40" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
+        <v>35</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
+        <v>36</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
+        <v>37</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A44" s="3">
+        <v>38</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A45" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A46" s="7">
+        <v>39</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A47" s="7">
+        <v>40</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A48" s="7">
+        <v>41</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A49" s="7">
+        <v>42</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A50" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A51" s="7">
+        <v>43</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A52" s="7">
+        <v>44</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A53" s="7">
+        <v>45</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A55" s="7">
+        <v>46</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A56" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A57" s="7">
+        <v>47</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A58" s="7">
+        <v>48</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A59" s="7">
+        <v>49</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="C59" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A60" s="7">
+        <v>50</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A33" s="4">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A34" s="10">
-        <v>32</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A35" s="10">
-        <v>33</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A36" s="10">
-        <v>34</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A37" s="10">
-        <v>35</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A38" s="10">
-        <v>36</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A39" s="10">
-        <v>37</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A40" s="10">
-        <v>38</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A41" s="10">
-        <v>39</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A42" s="10">
-        <v>40</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A43" s="10">
-        <v>41</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A44" s="10">
-        <v>42</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A45" s="10">
-        <v>43</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A46" s="10">
-        <v>44</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A47" s="10">
-        <v>45</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A48" s="10">
-        <v>46</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A49" s="10">
-        <v>47</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A50" s="10">
-        <v>48</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A51" s="10">
-        <v>49</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A52" s="10">
-        <v>50</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A53" s="10">
-        <v>51</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A54" s="10">
-        <v>52</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
+      <c r="C60" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
